--- a/SCH-STH/Baseline Mapping/Chad/td_sch_sth_baseline_1_school_202006.xlsx
+++ b/SCH-STH/Baseline Mapping/Chad/td_sch_sth_baseline_1_school_202006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Chad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34463C41-7F8A-4FA1-985C-AD70B0EC486F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D62E31F-381A-4940-94FD-43C81275361E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="407">
   <si>
     <t>form_title</t>
   </si>
@@ -1175,9 +1175,6 @@
     <t>select_multiple source_type</t>
   </si>
   <si>
-    <t>1. SCH/STH - School V2</t>
-  </si>
-  <si>
     <t>w_consent</t>
   </si>
   <si>
@@ -1220,9 +1217,6 @@
     <t>w_health_area</t>
   </si>
   <si>
-    <t>td_sch_sth_baseline_1_school_202006_v2</t>
-  </si>
-  <si>
     <t>Tissi Urbain</t>
   </si>
   <si>
@@ -1251,6 +1245,12 @@
   </si>
   <si>
     <t>Mobile.water.tanker</t>
+  </si>
+  <si>
+    <t>td_sch_sth_baseline_1_school_202006_v3</t>
+  </si>
+  <si>
+    <t>1. SCH/STH - Teacher/school V3</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1763,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7:K8"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1931,10 +1931,10 @@
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>349</v>
@@ -2052,14 +2052,14 @@
         <v>42</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="14"/>
@@ -2096,7 +2096,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
       <c r="K10" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9" t="s">
@@ -2125,7 +2125,7 @@
       <c r="I11" s="25"/>
       <c r="J11" s="26"/>
       <c r="K11" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="9" t="s">
@@ -2154,7 +2154,7 @@
       <c r="I12" s="25"/>
       <c r="J12" s="26"/>
       <c r="K12" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="9" t="s">
@@ -2163,135 +2163,135 @@
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
+      <c r="B13" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="L13" s="11"/>
+        <v>385</v>
+      </c>
+      <c r="L13" s="6"/>
       <c r="M13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
+        <v>42</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="L14" s="11"/>
+        <v>385</v>
+      </c>
+      <c r="L14" s="6"/>
       <c r="M14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
+        <v>42</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="L15" s="11"/>
+        <v>385</v>
+      </c>
+      <c r="L15" s="6"/>
       <c r="M15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
+        <v>42</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="L16" s="11"/>
+        <v>385</v>
+      </c>
+      <c r="L16" s="6"/>
       <c r="M16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="11"/>
@@ -2299,7 +2299,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="21"/>
       <c r="K17" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="9" t="s">
@@ -2310,25 +2310,25 @@
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="24"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="20"/>
       <c r="J18" s="21"/>
       <c r="K18" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="9" t="s">
@@ -2339,25 +2339,25 @@
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" s="8"/>
+        <v>380</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="24"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="20"/>
       <c r="J19" s="21"/>
       <c r="K19" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="9" t="s">
@@ -2366,149 +2366,143 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="L20" s="6"/>
+        <v>385</v>
+      </c>
+      <c r="L20" s="11"/>
       <c r="M20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="L21" s="6"/>
+        <v>385</v>
+      </c>
+      <c r="L21" s="11"/>
       <c r="M21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>173</v>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="L22" s="6"/>
+        <v>387</v>
+      </c>
+      <c r="L22" s="11"/>
       <c r="M22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>189</v>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
+        <v>206</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>42</v>
+      <c r="A24" s="29" t="s">
+        <v>173</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D24" s="32"/>
       <c r="E24" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>106</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F24" s="8"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
       <c r="J24" s="8"/>
       <c r="K24" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="9" t="s">
@@ -2518,30 +2512,26 @@
       <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>42</v>
+      <c r="A25" s="29" t="s">
+        <v>173</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D25" s="32"/>
       <c r="E25" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>106</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F25" s="8"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
       <c r="K25" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="9" t="s">
@@ -2552,29 +2542,25 @@
     </row>
     <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>77</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D26" s="32"/>
       <c r="E26" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>106</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F26" s="8"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="7"/>
       <c r="J26" s="8"/>
       <c r="K26" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="9" t="s">
@@ -2583,57 +2569,67 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>42</v>
+    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>189</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>361</v>
+        <v>73</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>358</v>
+        <v>74</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="F27" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
       <c r="K27" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L27" s="6"/>
-      <c r="M27" s="9"/>
+      <c r="M27" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>362</v>
+        <v>75</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="D28" s="32"/>
+        <v>76</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>77</v>
+      </c>
       <c r="E28" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="F28" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="7"/>
       <c r="J28" s="8"/>
       <c r="K28" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L28" s="6"/>
-      <c r="M28" s="9"/>
+      <c r="M28" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
     </row>
@@ -2642,68 +2638,80 @@
         <v>42</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="D29" s="32"/>
+        <v>79</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>77</v>
+      </c>
       <c r="E29" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F29" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
       <c r="J29" s="8"/>
       <c r="K29" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="9"/>
+      <c r="M29" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>42</v>
+    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>201</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="D30" s="32"/>
+        <v>81</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>77</v>
+      </c>
       <c r="E30" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="F30" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="7"/>
       <c r="J30" s="8"/>
       <c r="K30" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L30" s="6"/>
-      <c r="M30" s="9"/>
+      <c r="M30" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="B31" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="C31" s="32" t="s">
         <v>391</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>392</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="6"/>
@@ -2711,7 +2719,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="8"/>
       <c r="K31" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="9"/>
@@ -5310,7 +5318,7 @@
         <v>139</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C144" s="23" t="s">
         <v>136</v>
@@ -5642,100 +5650,100 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B165" s="34" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C165" s="34" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D165" s="34" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B166" s="34" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C166" s="34" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D166" s="34" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B167" s="34" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C167" s="34" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D167" s="34" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B168" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C168" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D168" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B169" s="34" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C169" s="34" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D169" s="34" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B170" s="34" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C170" s="34" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D170" s="34" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B171" s="34" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C171" s="34" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D171" s="34" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -5752,13 +5760,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5778,13 +5786,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C2">
-        <v>20200526</v>
+        <v>20200630</v>
       </c>
       <c r="D2" t="s">
         <v>209</v>
